--- a/CSCO.xlsx
+++ b/CSCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C991BC28-8933-4C1D-8676-94B08506B051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46485F8B-4989-4982-B6B7-954B973EF3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AEBF823D-7219-4C80-9D04-AC171D3186FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{AEBF823D-7219-4C80-9D04-AC171D3186FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,14 +190,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -211,6 +209,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,20 +244,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -585,32 +598,33 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>58.74</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="3">
@@ -620,11 +634,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="3">
@@ -632,11 +646,11 @@
         <v>233947.22019240001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="3">
@@ -647,8 +661,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="3">
@@ -659,8 +673,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="3">
@@ -678,24 +692,25 @@
   <dimension ref="A1:X272"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -721,8 +736,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3"/>
@@ -752,8 +767,8 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3"/>
@@ -783,7 +798,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -834,8 +849,8 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3"/>
@@ -865,8 +880,8 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3"/>
@@ -896,8 +911,8 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3">
@@ -947,8 +962,8 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3"/>
@@ -978,8 +993,8 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="3"/>
@@ -1009,8 +1024,8 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="3"/>
@@ -1040,8 +1055,8 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="3"/>
@@ -1071,8 +1086,8 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3"/>
@@ -1102,8 +1117,8 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="3">
@@ -1153,8 +1168,8 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="3"/>
@@ -1184,8 +1199,8 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3"/>
@@ -1215,8 +1230,8 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3"/>
@@ -1246,8 +1261,8 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3">
@@ -1297,8 +1312,8 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="3"/>
@@ -1328,8 +1343,8 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="3">
@@ -1379,7 +1394,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1403,39 +1418,39 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="2" t="e">
+      <c r="C22" s="7" t="e">
         <f t="shared" ref="C22:H22" si="10">+C20/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="2" t="e">
+      <c r="D22" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="7">
         <f t="shared" si="10"/>
         <v>0.89672171555336455</v>
       </c>
-      <c r="F22" s="2" t="e">
+      <c r="F22" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="2" t="e">
+      <c r="G22" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="2" t="e">
+      <c r="H22" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="7">
         <f>+I20/I23</f>
         <v>0.67944862155388475</v>
       </c>
-      <c r="J22" s="2" t="e">
+      <c r="J22" s="7" t="e">
         <f t="shared" ref="J22" si="11">+J20/J23</f>
         <v>#DIV/0!</v>
       </c>
@@ -1454,8 +1469,8 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="3"/>
@@ -1485,7 +1500,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1509,27 +1524,27 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="7" t="e">
+      <c r="G25" s="8" t="e">
         <f t="shared" ref="G25:H27" si="12">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="7" t="e">
+      <c r="H25" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <f>+I3/E3-1</f>
         <v>-9.2019032229104902E-2</v>
       </c>
-      <c r="J25" s="7" t="e">
+      <c r="J25" s="8" t="e">
         <f t="shared" ref="J25:J27" si="13">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -1548,27 +1563,27 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="7" t="e">
+      <c r="G26" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="7" t="e">
+      <c r="H26" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <f t="shared" ref="I26:I27" si="14">+I4/E4-1</f>
         <v>5.6106545763672466E-2</v>
       </c>
-      <c r="J26" s="7" t="e">
+      <c r="J26" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -1587,27 +1602,27 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7" t="e">
+      <c r="G27" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="7" t="e">
+      <c r="H27" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <f t="shared" si="14"/>
         <v>-5.6381238069266426E-2</v>
       </c>
-      <c r="J27" s="7" t="e">
+      <c r="J27" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -1626,39 +1641,39 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="7" t="e">
-        <f t="shared" ref="C28:J28" si="15">+(C3-C6)/C3</f>
+      <c r="C28" s="8" t="e">
+        <f t="shared" ref="C28:H28" si="15">+(C3-C6)/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="7" t="e">
+      <c r="D28" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <f t="shared" si="15"/>
         <v>0.6447616482628602</v>
       </c>
-      <c r="F28" s="7" t="e">
+      <c r="F28" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="7" t="e">
+      <c r="G28" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="7" t="e">
+      <c r="H28" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <f>+(I3-I6)/I3</f>
         <v>0.65137433260826572</v>
       </c>
-      <c r="J28" s="7" t="e">
+      <c r="J28" s="8" t="e">
         <f t="shared" ref="J28:J29" si="16">+(J3-J6)/J3</f>
         <v>#DIV/0!</v>
       </c>
@@ -1677,39 +1692,39 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="7" t="e">
-        <f t="shared" ref="C29:J29" si="17">+(C4-C7)/C4</f>
+      <c r="C29" s="8" t="e">
+        <f t="shared" ref="C29:H29" si="17">+(C4-C7)/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="7" t="e">
+      <c r="D29" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <f t="shared" si="17"/>
         <v>0.67299518277132331</v>
       </c>
-      <c r="F29" s="7" t="e">
+      <c r="F29" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="7" t="e">
+      <c r="G29" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <f>+(I4-I7)/I4</f>
         <v>0.67963509525087207</v>
       </c>
-      <c r="J29" s="7" t="e">
+      <c r="J29" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
@@ -1728,39 +1743,39 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="7" t="e">
-        <f t="shared" ref="C30:J30" si="18">+C8/C5</f>
+      <c r="C30" s="8" t="e">
+        <f t="shared" ref="C30:H30" si="18">+C8/C5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="7" t="e">
+      <c r="D30" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <f t="shared" si="18"/>
         <v>0.6515544041450777</v>
       </c>
-      <c r="F30" s="7" t="e">
+      <c r="F30" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="7" t="e">
+      <c r="G30" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <f>+I8/I5</f>
         <v>0.65898417744382631</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="8" t="e">
         <f t="shared" ref="J30" si="19">+J8/J5</f>
         <v>#DIV/0!</v>
       </c>
@@ -1779,39 +1794,39 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="7" t="e">
-        <f t="shared" ref="C31:J31" si="20">+C14/C5</f>
+      <c r="C31" s="8" t="e">
+        <f t="shared" ref="C31:H31" si="20">+C14/C5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="7" t="e">
+      <c r="D31" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <f t="shared" si="20"/>
         <v>0.2915189528224707</v>
       </c>
-      <c r="F31" s="7" t="e">
+      <c r="F31" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="7" t="e">
+      <c r="G31" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
+      <c r="H31" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <f>+I14/I5</f>
         <v>0.17036341304819017</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J31" s="8" t="e">
         <f t="shared" ref="J31" si="21">+J14/J5</f>
         <v>#DIV/0!</v>
       </c>
@@ -1830,40 +1845,40 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="7" t="e">
-        <f>+C19/C18</f>
+      <c r="C32" s="8" t="e">
+        <f t="shared" ref="C32:J32" si="22">+C19/C18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="7" t="e">
-        <f>+D19/D18</f>
+      <c r="D32" s="8" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="7">
-        <f>+E19/E18</f>
+      <c r="E32" s="8">
+        <f t="shared" si="22"/>
         <v>0.18099954975236379</v>
       </c>
-      <c r="F32" s="7" t="e">
-        <f>+F19/F18</f>
+      <c r="F32" s="8" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="7" t="e">
-        <f>+G19/G18</f>
+      <c r="G32" s="8" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="7" t="e">
-        <f>+H19/H18</f>
+      <c r="H32" s="8" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="7">
-        <f>+I19/I18</f>
+      <c r="I32" s="8">
+        <f t="shared" si="22"/>
         <v>-0.19585355094838994</v>
       </c>
-      <c r="J32" s="7" t="e">
-        <f>+J19/J18</f>
+      <c r="J32" s="8" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="3"/>
@@ -1881,7 +1896,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1905,7 +1920,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1929,7 +1944,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1953,7 +1968,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1977,7 +1992,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2001,7 +2016,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2025,7 +2040,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2049,7 +2064,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2073,7 +2088,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2097,7 +2112,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2121,7 +2136,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2145,7 +2160,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2169,7 +2184,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2193,7 +2208,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2217,7 +2232,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2241,7 +2256,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2265,7 +2280,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2289,7 +2304,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2313,7 +2328,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2337,7 +2352,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2361,7 +2376,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2385,7 +2400,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2409,7 +2424,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2433,7 +2448,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2457,7 +2472,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2481,7 +2496,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2505,7 +2520,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2529,7 +2544,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2553,7 +2568,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2577,7 +2592,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2601,7 +2616,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2625,7 +2640,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2649,7 +2664,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2673,7 +2688,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2697,7 +2712,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2721,7 +2736,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2745,7 +2760,7 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2769,7 +2784,7 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2793,7 +2808,7 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2817,7 +2832,7 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2841,7 +2856,7 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2865,7 +2880,7 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2889,7 +2904,7 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2913,7 +2928,7 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2937,7 +2952,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2961,7 +2976,7 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2985,7 +3000,7 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3009,7 +3024,7 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3033,7 +3048,7 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3057,7 +3072,7 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3081,7 +3096,7 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3105,7 +3120,7 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3129,7 +3144,7 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3153,7 +3168,7 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3177,7 +3192,7 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3201,7 +3216,7 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3225,7 +3240,7 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3249,7 +3264,7 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3273,7 +3288,7 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3297,7 +3312,7 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3321,7 +3336,7 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3345,7 +3360,7 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3369,7 +3384,7 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3393,7 +3408,7 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3417,7 +3432,7 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -3441,7 +3456,7 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -3465,7 +3480,7 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -3489,7 +3504,7 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -3513,7 +3528,7 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -3537,7 +3552,7 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -3561,7 +3576,7 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -3585,7 +3600,7 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -3609,7 +3624,7 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -3633,7 +3648,7 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -3657,7 +3672,7 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -3681,7 +3696,7 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -3705,7 +3720,7 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3729,7 +3744,7 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -3753,7 +3768,7 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -3777,7 +3792,7 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -3801,7 +3816,7 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -3825,7 +3840,7 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3849,7 +3864,7 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -3873,7 +3888,7 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -3897,7 +3912,7 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -3921,7 +3936,7 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3945,7 +3960,7 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -3969,7 +3984,7 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -3993,7 +4008,7 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4017,7 +4032,7 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -4041,7 +4056,7 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -4065,7 +4080,7 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -4089,7 +4104,7 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -4113,7 +4128,7 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4137,7 +4152,7 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4161,7 +4176,7 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -4185,7 +4200,7 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -4209,7 +4224,7 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -4233,7 +4248,7 @@
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -4257,7 +4272,7 @@
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -4281,7 +4296,7 @@
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -4305,7 +4320,7 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -4329,7 +4344,7 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -4353,7 +4368,7 @@
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -4377,7 +4392,7 @@
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -4401,7 +4416,7 @@
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -4425,7 +4440,7 @@
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -4449,7 +4464,7 @@
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -4473,7 +4488,7 @@
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -4497,7 +4512,7 @@
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -4521,7 +4536,7 @@
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -4545,7 +4560,7 @@
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
     </row>
-    <row r="144" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -4569,7 +4584,7 @@
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
     </row>
-    <row r="145" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -4593,7 +4608,7 @@
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
     </row>
-    <row r="146" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -4617,7 +4632,7 @@
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
     </row>
-    <row r="147" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -4641,7 +4656,7 @@
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
     </row>
-    <row r="148" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -4665,7 +4680,7 @@
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
     </row>
-    <row r="149" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4689,7 +4704,7 @@
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
     </row>
-    <row r="150" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -4713,7 +4728,7 @@
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
     </row>
-    <row r="151" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4737,7 +4752,7 @@
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
     </row>
-    <row r="152" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -4761,7 +4776,7 @@
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
     </row>
-    <row r="153" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -4785,7 +4800,7 @@
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
     </row>
-    <row r="154" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -4809,7 +4824,7 @@
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
     </row>
-    <row r="155" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -4833,7 +4848,7 @@
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
     </row>
-    <row r="156" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -4857,7 +4872,7 @@
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
     </row>
-    <row r="157" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4881,7 +4896,7 @@
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
     </row>
-    <row r="158" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -4905,7 +4920,7 @@
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
     </row>
-    <row r="159" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -4929,7 +4944,7 @@
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
     </row>
-    <row r="160" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -4953,7 +4968,7 @@
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
     </row>
-    <row r="161" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -4977,7 +4992,7 @@
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
     </row>
-    <row r="162" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -5001,7 +5016,7 @@
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
     </row>
-    <row r="163" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -5025,7 +5040,7 @@
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
     </row>
-    <row r="164" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -5049,7 +5064,7 @@
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
     </row>
-    <row r="165" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -5073,7 +5088,7 @@
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
     </row>
-    <row r="166" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -5097,7 +5112,7 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
     </row>
-    <row r="167" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -5121,7 +5136,7 @@
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
     </row>
-    <row r="168" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -5145,7 +5160,7 @@
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
     </row>
-    <row r="169" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -5169,7 +5184,7 @@
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
     </row>
-    <row r="170" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -5193,7 +5208,7 @@
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
     </row>
-    <row r="171" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -5217,7 +5232,7 @@
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
     </row>
-    <row r="172" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -5241,7 +5256,7 @@
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
     </row>
-    <row r="173" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -5265,7 +5280,7 @@
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
     </row>
-    <row r="174" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -5289,7 +5304,7 @@
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
     </row>
-    <row r="175" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -5313,7 +5328,7 @@
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
     </row>
-    <row r="176" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -5337,7 +5352,7 @@
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
     </row>
-    <row r="177" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -5361,7 +5376,7 @@
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
     </row>
-    <row r="178" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -5385,7 +5400,7 @@
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
     </row>
-    <row r="179" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -5409,7 +5424,7 @@
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
     </row>
-    <row r="180" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -5433,7 +5448,7 @@
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
     </row>
-    <row r="181" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -5457,7 +5472,7 @@
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
     </row>
-    <row r="182" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -5481,7 +5496,7 @@
       <c r="W182" s="3"/>
       <c r="X182" s="3"/>
     </row>
-    <row r="183" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -5505,7 +5520,7 @@
       <c r="W183" s="3"/>
       <c r="X183" s="3"/>
     </row>
-    <row r="184" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -5529,7 +5544,7 @@
       <c r="W184" s="3"/>
       <c r="X184" s="3"/>
     </row>
-    <row r="185" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -5553,7 +5568,7 @@
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
     </row>
-    <row r="186" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -5577,7 +5592,7 @@
       <c r="W186" s="3"/>
       <c r="X186" s="3"/>
     </row>
-    <row r="187" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -5601,7 +5616,7 @@
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
     </row>
-    <row r="188" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -5625,7 +5640,7 @@
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
     </row>
-    <row r="189" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -5649,7 +5664,7 @@
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
     </row>
-    <row r="190" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -5673,7 +5688,7 @@
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
     </row>
-    <row r="191" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -5697,7 +5712,7 @@
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
     </row>
-    <row r="192" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -5721,7 +5736,7 @@
       <c r="W192" s="3"/>
       <c r="X192" s="3"/>
     </row>
-    <row r="193" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -5745,7 +5760,7 @@
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
     </row>
-    <row r="194" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -5769,7 +5784,7 @@
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
     </row>
-    <row r="195" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -5793,7 +5808,7 @@
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
     </row>
-    <row r="196" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -5817,7 +5832,7 @@
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
     </row>
-    <row r="197" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -5841,7 +5856,7 @@
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
     </row>
-    <row r="198" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -5865,7 +5880,7 @@
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
     </row>
-    <row r="199" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -5889,7 +5904,7 @@
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
     </row>
-    <row r="200" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -5913,7 +5928,7 @@
       <c r="W200" s="3"/>
       <c r="X200" s="3"/>
     </row>
-    <row r="201" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -5937,7 +5952,7 @@
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
     </row>
-    <row r="202" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -5961,7 +5976,7 @@
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
     </row>
-    <row r="203" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -5985,7 +6000,7 @@
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
     </row>
-    <row r="204" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -6009,7 +6024,7 @@
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
     </row>
-    <row r="205" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -6033,7 +6048,7 @@
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
     </row>
-    <row r="206" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -6057,7 +6072,7 @@
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
     </row>
-    <row r="207" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -6081,7 +6096,7 @@
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
     </row>
-    <row r="208" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -6105,7 +6120,7 @@
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
     </row>
-    <row r="209" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -6129,7 +6144,7 @@
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
     </row>
-    <row r="210" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -6153,7 +6168,7 @@
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
     </row>
-    <row r="211" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -6177,7 +6192,7 @@
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
     </row>
-    <row r="212" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -6201,7 +6216,7 @@
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
     </row>
-    <row r="213" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -6225,7 +6240,7 @@
       <c r="W213" s="3"/>
       <c r="X213" s="3"/>
     </row>
-    <row r="214" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -6249,7 +6264,7 @@
       <c r="W214" s="3"/>
       <c r="X214" s="3"/>
     </row>
-    <row r="215" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -6273,7 +6288,7 @@
       <c r="W215" s="3"/>
       <c r="X215" s="3"/>
     </row>
-    <row r="216" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -6297,7 +6312,7 @@
       <c r="W216" s="3"/>
       <c r="X216" s="3"/>
     </row>
-    <row r="217" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -6321,7 +6336,7 @@
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
     </row>
-    <row r="218" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -6345,7 +6360,7 @@
       <c r="W218" s="3"/>
       <c r="X218" s="3"/>
     </row>
-    <row r="219" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -6369,7 +6384,7 @@
       <c r="W219" s="3"/>
       <c r="X219" s="3"/>
     </row>
-    <row r="220" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -6393,7 +6408,7 @@
       <c r="W220" s="3"/>
       <c r="X220" s="3"/>
     </row>
-    <row r="221" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -6417,7 +6432,7 @@
       <c r="W221" s="3"/>
       <c r="X221" s="3"/>
     </row>
-    <row r="222" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -6441,7 +6456,7 @@
       <c r="W222" s="3"/>
       <c r="X222" s="3"/>
     </row>
-    <row r="223" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -6465,7 +6480,7 @@
       <c r="W223" s="3"/>
       <c r="X223" s="3"/>
     </row>
-    <row r="224" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -6489,7 +6504,7 @@
       <c r="W224" s="3"/>
       <c r="X224" s="3"/>
     </row>
-    <row r="225" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -6513,7 +6528,7 @@
       <c r="W225" s="3"/>
       <c r="X225" s="3"/>
     </row>
-    <row r="226" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -6537,7 +6552,7 @@
       <c r="W226" s="3"/>
       <c r="X226" s="3"/>
     </row>
-    <row r="227" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -6561,7 +6576,7 @@
       <c r="W227" s="3"/>
       <c r="X227" s="3"/>
     </row>
-    <row r="228" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -6585,7 +6600,7 @@
       <c r="W228" s="3"/>
       <c r="X228" s="3"/>
     </row>
-    <row r="229" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -6609,7 +6624,7 @@
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
     </row>
-    <row r="230" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -6633,7 +6648,7 @@
       <c r="W230" s="3"/>
       <c r="X230" s="3"/>
     </row>
-    <row r="231" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -6657,7 +6672,7 @@
       <c r="W231" s="3"/>
       <c r="X231" s="3"/>
     </row>
-    <row r="232" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -6681,7 +6696,7 @@
       <c r="W232" s="3"/>
       <c r="X232" s="3"/>
     </row>
-    <row r="233" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -6705,7 +6720,7 @@
       <c r="W233" s="3"/>
       <c r="X233" s="3"/>
     </row>
-    <row r="234" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -6729,7 +6744,7 @@
       <c r="W234" s="3"/>
       <c r="X234" s="3"/>
     </row>
-    <row r="235" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -6753,7 +6768,7 @@
       <c r="W235" s="3"/>
       <c r="X235" s="3"/>
     </row>
-    <row r="236" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -6777,7 +6792,7 @@
       <c r="W236" s="3"/>
       <c r="X236" s="3"/>
     </row>
-    <row r="237" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -6801,7 +6816,7 @@
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
     </row>
-    <row r="238" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -6825,7 +6840,7 @@
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
     </row>
-    <row r="239" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -6849,7 +6864,7 @@
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
     </row>
-    <row r="240" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -6873,7 +6888,7 @@
       <c r="W240" s="3"/>
       <c r="X240" s="3"/>
     </row>
-    <row r="241" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -6897,7 +6912,7 @@
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
     </row>
-    <row r="242" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -6921,7 +6936,7 @@
       <c r="W242" s="3"/>
       <c r="X242" s="3"/>
     </row>
-    <row r="243" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -6945,7 +6960,7 @@
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
     </row>
-    <row r="244" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -6969,7 +6984,7 @@
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
     </row>
-    <row r="245" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -6993,7 +7008,7 @@
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
     </row>
-    <row r="246" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -7017,7 +7032,7 @@
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
     </row>
-    <row r="247" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -7041,7 +7056,7 @@
       <c r="W247" s="3"/>
       <c r="X247" s="3"/>
     </row>
-    <row r="248" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -7065,7 +7080,7 @@
       <c r="W248" s="3"/>
       <c r="X248" s="3"/>
     </row>
-    <row r="249" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -7089,7 +7104,7 @@
       <c r="W249" s="3"/>
       <c r="X249" s="3"/>
     </row>
-    <row r="250" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -7113,7 +7128,7 @@
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
     </row>
-    <row r="251" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -7137,7 +7152,7 @@
       <c r="W251" s="3"/>
       <c r="X251" s="3"/>
     </row>
-    <row r="252" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -7161,7 +7176,7 @@
       <c r="W252" s="3"/>
       <c r="X252" s="3"/>
     </row>
-    <row r="253" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -7185,7 +7200,7 @@
       <c r="W253" s="3"/>
       <c r="X253" s="3"/>
     </row>
-    <row r="254" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -7209,7 +7224,7 @@
       <c r="W254" s="3"/>
       <c r="X254" s="3"/>
     </row>
-    <row r="255" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -7233,7 +7248,7 @@
       <c r="W255" s="3"/>
       <c r="X255" s="3"/>
     </row>
-    <row r="256" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -7257,7 +7272,7 @@
       <c r="W256" s="3"/>
       <c r="X256" s="3"/>
     </row>
-    <row r="257" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -7281,7 +7296,7 @@
       <c r="W257" s="3"/>
       <c r="X257" s="3"/>
     </row>
-    <row r="258" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -7305,7 +7320,7 @@
       <c r="W258" s="3"/>
       <c r="X258" s="3"/>
     </row>
-    <row r="259" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -7329,7 +7344,7 @@
       <c r="W259" s="3"/>
       <c r="X259" s="3"/>
     </row>
-    <row r="260" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -7353,7 +7368,7 @@
       <c r="W260" s="3"/>
       <c r="X260" s="3"/>
     </row>
-    <row r="261" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -7377,7 +7392,7 @@
       <c r="W261" s="3"/>
       <c r="X261" s="3"/>
     </row>
-    <row r="262" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -7401,7 +7416,7 @@
       <c r="W262" s="3"/>
       <c r="X262" s="3"/>
     </row>
-    <row r="263" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -7425,7 +7440,7 @@
       <c r="W263" s="3"/>
       <c r="X263" s="3"/>
     </row>
-    <row r="264" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -7449,7 +7464,7 @@
       <c r="W264" s="3"/>
       <c r="X264" s="3"/>
     </row>
-    <row r="265" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -7473,7 +7488,7 @@
       <c r="W265" s="3"/>
       <c r="X265" s="3"/>
     </row>
-    <row r="266" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -7497,7 +7512,7 @@
       <c r="W266" s="3"/>
       <c r="X266" s="3"/>
     </row>
-    <row r="267" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -7521,7 +7536,7 @@
       <c r="W267" s="3"/>
       <c r="X267" s="3"/>
     </row>
-    <row r="268" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -7545,7 +7560,7 @@
       <c r="W268" s="3"/>
       <c r="X268" s="3"/>
     </row>
-    <row r="269" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -7569,7 +7584,7 @@
       <c r="W269" s="3"/>
       <c r="X269" s="3"/>
     </row>
-    <row r="270" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -7593,7 +7608,7 @@
       <c r="W270" s="3"/>
       <c r="X270" s="3"/>
     </row>
-    <row r="271" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -7617,7 +7632,7 @@
       <c r="W271" s="3"/>
       <c r="X271" s="3"/>
     </row>
-    <row r="272" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>

--- a/CSCO.xlsx
+++ b/CSCO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46485F8B-4989-4982-B6B7-954B973EF3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA6EAF2-3E99-4E8C-BB9C-D20927632F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{AEBF823D-7219-4C80-9D04-AC171D3186FB}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{AEBF823D-7219-4C80-9D04-AC171D3186FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="2">
-        <v>58.74</v>
+        <v>66.489999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -643,7 +643,7 @@
       </c>
       <c r="G4" s="3">
         <f>+G2*G3</f>
-        <v>233947.22019240001</v>
+        <v>264813.59670739999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
       </c>
       <c r="G7" s="3">
         <f>+G4-G5+G6</f>
-        <v>247263.22019240001</v>
+        <v>278129.59670739999</v>
       </c>
     </row>
   </sheetData>

--- a/CSCO.xlsx
+++ b/CSCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA6EAF2-3E99-4E8C-BB9C-D20927632F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FABF30-A69A-4DC1-85EE-D09B92CAD8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{AEBF823D-7219-4C80-9D04-AC171D3186FB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AEBF823D-7219-4C80-9D04-AC171D3186FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>CSCO</t>
   </si>
@@ -176,18 +176,72 @@
   <si>
     <t>Revenue Growth</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
+    <t>Observability</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -244,21 +298,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -620,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="2">
-        <v>66.489999999999995</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -628,10 +687,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="3">
-        <v>3982.7582600000001</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>3953.1969530000001</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -643,7 +702,7 @@
       </c>
       <c r="G4" s="3">
         <f>+G2*G3</f>
-        <v>264813.59670739999</v>
+        <v>265654.8352416</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -654,11 +713,11 @@
         <v>7</v>
       </c>
       <c r="G5" s="3">
-        <f>9065+9606</f>
-        <v>18671</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
+        <f>8346+7754</f>
+        <v>16100</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -666,11 +725,11 @@
         <v>8</v>
       </c>
       <c r="G6" s="3">
-        <f>12364+19623</f>
-        <v>31987</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
+        <f>5232+22861</f>
+        <v>28093</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -679,7 +738,7 @@
       </c>
       <c r="G7" s="3">
         <f>+G4-G5+G6</f>
-        <v>278129.59670739999</v>
+        <v>277647.8352416</v>
       </c>
     </row>
   </sheetData>
@@ -689,13 +748,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E8DC66-B6BF-4E4D-B861-0B7EBC1D9284}">
-  <dimension ref="A1:X272"/>
+  <dimension ref="A1:CM276"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -705,12 +764,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -735,819 +794,1570 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="K2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10">
+        <v>34570</v>
+      </c>
+      <c r="U3" s="10">
+        <v>29229</v>
+      </c>
+      <c r="V3" s="10">
+        <v>28304</v>
+      </c>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+    </row>
+    <row r="4" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10">
+        <v>3859</v>
+      </c>
+      <c r="U4" s="10">
+        <v>5075</v>
+      </c>
+      <c r="V4" s="10">
+        <v>8094</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="10"/>
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="10"/>
+      <c r="BY4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="10"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="10"/>
+      <c r="CI4" s="10"/>
+      <c r="CJ4" s="10"/>
+      <c r="CK4" s="10"/>
+      <c r="CL4" s="10"/>
+      <c r="CM4" s="10"/>
+    </row>
+    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10">
+        <v>4052</v>
+      </c>
+      <c r="U5" s="10">
+        <v>4113</v>
+      </c>
+      <c r="V5" s="10">
+        <v>4154</v>
+      </c>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="10"/>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="10"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10"/>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="10"/>
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="10"/>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="10"/>
+      <c r="CI5" s="10"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="10"/>
+    </row>
+    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
+        <v>661</v>
+      </c>
+      <c r="U6" s="10">
+        <v>837</v>
+      </c>
+      <c r="V6" s="10">
+        <v>1055</v>
+      </c>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="10"/>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+    </row>
+    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
         <v>11139</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
         <v>10114</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10">
+        <v>43142</v>
+      </c>
+      <c r="U7" s="10">
+        <v>39253</v>
+      </c>
+      <c r="V7" s="10">
+        <v>41608</v>
+      </c>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="10"/>
+      <c r="BK7" s="10"/>
+      <c r="BL7" s="10"/>
+      <c r="BM7" s="10"/>
+      <c r="BN7" s="10"/>
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="10"/>
+      <c r="BQ7" s="10"/>
+      <c r="BR7" s="10"/>
+      <c r="BS7" s="10"/>
+      <c r="BT7" s="10"/>
+      <c r="BU7" s="10"/>
+      <c r="BV7" s="10"/>
+      <c r="BW7" s="10"/>
+      <c r="BX7" s="10"/>
+      <c r="BY7" s="10"/>
+      <c r="BZ7" s="10"/>
+      <c r="CA7" s="10"/>
+      <c r="CB7" s="10"/>
+      <c r="CC7" s="10"/>
+      <c r="CD7" s="10"/>
+      <c r="CE7" s="10"/>
+      <c r="CF7" s="10"/>
+      <c r="CG7" s="10"/>
+      <c r="CH7" s="10"/>
+      <c r="CI7" s="10"/>
+      <c r="CJ7" s="10"/>
+      <c r="CK7" s="10"/>
+      <c r="CL7" s="10"/>
+      <c r="CM7" s="10"/>
+    </row>
+    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
         <v>3529</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10">
         <v>3727</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10">
+        <v>13856</v>
+      </c>
+      <c r="U8" s="10">
+        <v>14550</v>
+      </c>
+      <c r="V8" s="10">
+        <v>15046</v>
+      </c>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+    </row>
+    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6">
-        <f t="shared" ref="C5:H5" si="0">SUM(C3:C4)</f>
+      <c r="C9" s="11">
+        <f t="shared" ref="C9:H9" si="0">SUM(C7:C8)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>14668</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
-        <f>SUM(I3:I4)</f>
+      <c r="I9" s="11">
+        <f>SUM(I7:I8)</f>
         <v>13841</v>
       </c>
-      <c r="J5" s="6">
-        <f t="shared" ref="J5" si="1">SUM(J3:J4)</f>
+      <c r="J9" s="11">
+        <f t="shared" ref="J9:N9" si="1">SUM(J7:J8)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>3957</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>3526</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>1154</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>1194</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:H8" si="2">+C5-SUM(C6:C7)</f>
+      <c r="K9" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="L9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11">
+        <f t="shared" ref="P9:U9" si="2">+P7+P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="2"/>
-        <v>9557</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="R9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="S9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="T9" s="11">
         <f t="shared" si="2"/>
+        <v>56998</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="2"/>
+        <v>53803</v>
+      </c>
+      <c r="V9" s="11">
+        <f>+V7+V8</f>
+        <v>56654</v>
+      </c>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+    </row>
+    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>3957</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
+        <v>3526</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10">
+        <v>16590</v>
+      </c>
+      <c r="U10" s="10">
+        <v>14339</v>
+      </c>
+      <c r="V10" s="10">
+        <v>15121</v>
+      </c>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+    </row>
+    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>1154</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
+        <v>1194</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10">
+        <v>4655</v>
+      </c>
+      <c r="U11" s="10">
+        <v>4636</v>
+      </c>
+      <c r="V11" s="10">
+        <v>4743</v>
+      </c>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+    </row>
+    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12:H12" si="3">+C9-SUM(C10:C11)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <f>+I5-SUM(I6:I7)</f>
+      <c r="D12" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="3"/>
+        <v>9557</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <f>+I9-SUM(I10:I11)</f>
         <v>9121</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" ref="J8" si="3">+J5-SUM(J6:J7)</f>
+      <c r="J12" s="10">
+        <f t="shared" ref="J12:V12" si="4">+J9-SUM(J10:J11)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>1913</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
-        <v>2286</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>2506</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>2752</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>672</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>795</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>67</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>265</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>123</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>665</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" ref="C14:H14" si="4">+C8-SUM(C9:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="K12" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <f t="shared" si="4"/>
-        <v>4276</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="L12" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="M12" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="N12" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <f>+I8-SUM(I9:I13)</f>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" si="4"/>
+        <v>35753</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="4"/>
+        <v>34828</v>
+      </c>
+      <c r="V12" s="10">
+        <f t="shared" si="4"/>
+        <v>36790</v>
+      </c>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+    </row>
+    <row r="13" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
+        <v>1913</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
+        <v>2286</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10">
+        <v>7551</v>
+      </c>
+      <c r="U13" s="10">
+        <v>7983</v>
+      </c>
+      <c r="V13" s="10">
+        <v>9300</v>
+      </c>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+    </row>
+    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <v>2506</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10">
+        <v>2752</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10">
+        <v>9880</v>
+      </c>
+      <c r="U14" s="10">
+        <v>10364</v>
+      </c>
+      <c r="V14" s="10">
+        <v>10966</v>
+      </c>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+    </row>
+    <row r="15" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <v>672</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10">
+        <v>795</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10">
+        <v>2478</v>
+      </c>
+      <c r="U15" s="10">
+        <v>2813</v>
+      </c>
+      <c r="V15" s="10">
+        <v>2992</v>
+      </c>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+    </row>
+    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <v>67</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10">
+        <v>265</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10">
+        <v>282</v>
+      </c>
+      <c r="U16" s="10">
+        <v>698</v>
+      </c>
+      <c r="V16" s="10">
+        <v>1028</v>
+      </c>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>123</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10">
+        <v>665</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10">
+        <v>531</v>
+      </c>
+      <c r="U17" s="10">
+        <v>789</v>
+      </c>
+      <c r="V17" s="10">
+        <v>744</v>
+      </c>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" ref="C18:H18" si="5">+C12-SUM(C13:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="5"/>
+        <v>4276</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <f>+I12-SUM(I13:I17)</f>
         <v>2358</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" ref="J14" si="5">+J8-SUM(J9:J13)</f>
+      <c r="J18" s="10">
+        <f t="shared" ref="J18:V18" si="6">+J12-SUM(J13:J17)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>360</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>286</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>111</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>418</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>-83</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>41</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:H18" si="6">+C14+C15-C16+C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="K18" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E18" s="3">
-        <f t="shared" si="6"/>
-        <v>4442</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="L18" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G18" s="3">
+      <c r="M18" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H18" s="3">
+      <c r="N18" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I18" s="3">
-        <f>+I14+I15-I16+I17</f>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" si="6"/>
+        <v>15031</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="6"/>
+        <v>12181</v>
+      </c>
+      <c r="V18" s="10">
+        <f t="shared" si="6"/>
+        <v>11760</v>
+      </c>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
+        <v>360</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10">
+        <v>286</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10">
+        <v>962</v>
+      </c>
+      <c r="U19" s="10">
+        <v>1365</v>
+      </c>
+      <c r="V19" s="10">
+        <v>1001</v>
+      </c>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
+        <v>111</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10">
+        <v>418</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10">
+        <v>427</v>
+      </c>
+      <c r="U20" s="10">
+        <v>1006</v>
+      </c>
+      <c r="V20" s="10">
+        <v>1593</v>
+      </c>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
+        <v>-83</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
+        <v>41</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10">
+        <v>-248</v>
+      </c>
+      <c r="U21" s="10">
+        <v>-306</v>
+      </c>
+      <c r="V21" s="10">
+        <v>-68</v>
+      </c>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" ref="C22:H22" si="7">+C18+C19-C20+C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="7"/>
+        <v>4442</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <f>+I18+I19-I20+I21</f>
         <v>2267</v>
       </c>
-      <c r="J18" s="3">
-        <f t="shared" ref="J18" si="7">+J14+J15-J16+J17</f>
+      <c r="J22" s="10">
+        <f t="shared" ref="J22:V22" si="8">+J18+J19-J20+J21</f>
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
-        <v>804</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <v>-444</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20:H20" si="8">+C18-C19</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="K22" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E20" s="3">
-        <f t="shared" si="8"/>
-        <v>3638</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="L22" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G20" s="3">
+      <c r="M22" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H20" s="3">
+      <c r="N22" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I20" s="3">
-        <f>+I18-I19</f>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
+        <f t="shared" si="8"/>
+        <v>15318</v>
+      </c>
+      <c r="U22" s="10">
+        <f t="shared" si="8"/>
+        <v>12234</v>
+      </c>
+      <c r="V22" s="10">
+        <f t="shared" si="8"/>
+        <v>11100</v>
+      </c>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10">
+        <v>804</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10">
+        <v>-444</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10">
+        <v>2705</v>
+      </c>
+      <c r="U23" s="10">
+        <v>1914</v>
+      </c>
+      <c r="V23" s="10">
+        <v>920</v>
+      </c>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24:H24" si="9">+C22-C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="9"/>
+        <v>3638</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <f>+I22-I23</f>
         <v>2711</v>
       </c>
-      <c r="J20" s="3">
-        <f t="shared" ref="J20" si="9">+J18-J19</f>
+      <c r="J24" s="10">
+        <f t="shared" ref="J24:N24" si="10">+J22-J23</f>
         <v>0</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="7" t="e">
-        <f t="shared" ref="C22:H22" si="10">+C20/C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="7" t="e">
+      <c r="K24" s="10">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
         <f t="shared" si="10"/>
-        <v>0.89672171555336455</v>
-      </c>
-      <c r="F22" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="7">
-        <f>+I20/I23</f>
-        <v>0.67944862155388475</v>
-      </c>
-      <c r="J22" s="7" t="e">
-        <f t="shared" ref="J22" si="11">+J20/J23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
-        <v>4057</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>3990</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10">
+        <f t="shared" ref="P24:U24" si="11">+P22-P23</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" si="11"/>
+        <v>12613</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" si="11"/>
+        <v>10320</v>
+      </c>
+      <c r="V24" s="10">
+        <f>+V22-V23</f>
+        <v>10180</v>
+      </c>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="8" t="e">
-        <f t="shared" ref="G25:H27" si="12">+G3/C3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="8">
-        <f>+I3/E3-1</f>
-        <v>-9.2019032229104902E-2</v>
-      </c>
-      <c r="J25" s="8" t="e">
-        <f t="shared" ref="J25:J27" si="13">+J3/F3-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1563,28 +2373,40 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="8" t="e">
+        <v>37</v>
+      </c>
+      <c r="C26" s="6" t="e">
+        <f t="shared" ref="C26:H26" si="12">+C24/C27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="8" t="e">
+      <c r="E26" s="6">
+        <f t="shared" si="12"/>
+        <v>0.89672171555336455</v>
+      </c>
+      <c r="F26" s="6" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="8">
-        <f t="shared" ref="I26:I27" si="14">+I4/E4-1</f>
-        <v>5.6106545763672466E-2</v>
-      </c>
-      <c r="J26" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="G26" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="6">
+        <f>+I24/I27</f>
+        <v>0.67944862155388475</v>
+      </c>
+      <c r="J26" s="6" t="e">
+        <f t="shared" ref="J26" si="13">+J24/J27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="3"/>
@@ -1592,40 +2414,53 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="P26" s="6" t="e">
+        <f t="shared" ref="P26:U26" si="14">+P24/P27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="6">
+        <f t="shared" si="14"/>
+        <v>3.1722837022132797</v>
+      </c>
+      <c r="U26" s="6">
+        <f t="shared" si="14"/>
+        <v>2.5525599802127132</v>
+      </c>
+      <c r="V26" s="6">
+        <f>+V24/V27</f>
+        <v>2.4871732225751284</v>
+      </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>4057</v>
+      </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="14"/>
-        <v>-5.6381238069266426E-2</v>
-      </c>
-      <c r="J27" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>3990</v>
+      </c>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1635,48 +2470,27 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="T27" s="3">
+        <v>3976</v>
+      </c>
+      <c r="U27" s="3">
+        <v>4043</v>
+      </c>
+      <c r="V27" s="3">
+        <v>4093</v>
+      </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="8" t="e">
-        <f t="shared" ref="C28:H28" si="15">+(C3-C6)/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="15"/>
-        <v>0.6447616482628602</v>
-      </c>
-      <c r="F28" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="8">
-        <f>+(I3-I6)/I3</f>
-        <v>0.65137433260826572</v>
-      </c>
-      <c r="J28" s="8" t="e">
-        <f t="shared" ref="J28:J29" si="16">+(J3-J6)/J3</f>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1692,40 +2506,28 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="8" t="e">
-        <f t="shared" ref="C29:H29" si="17">+(C4-C7)/C4</f>
+        <v>38</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="7" t="e">
+        <f t="shared" ref="G29:H31" si="15">+G7/C7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="8" t="e">
-        <f t="shared" si="17"/>
+      <c r="H29" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="8">
-        <f t="shared" si="17"/>
-        <v>0.67299518277132331</v>
-      </c>
-      <c r="F29" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="8">
-        <f>+(I4-I7)/I4</f>
-        <v>0.67963509525087207</v>
-      </c>
-      <c r="J29" s="8" t="e">
-        <f t="shared" si="16"/>
+      <c r="I29" s="7">
+        <f>+I7/E7-1</f>
+        <v>-9.2019032229104902E-2</v>
+      </c>
+      <c r="J29" s="7" t="e">
+        <f t="shared" ref="J29:J31" si="16">+J7/F7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="3"/>
@@ -1743,40 +2545,28 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="8" t="e">
-        <f t="shared" ref="C30:H30" si="18">+C8/C5</f>
+        <v>39</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="8" t="e">
-        <f t="shared" si="18"/>
+      <c r="H30" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="8">
-        <f t="shared" si="18"/>
-        <v>0.6515544041450777</v>
-      </c>
-      <c r="F30" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="8">
-        <f>+I8/I5</f>
-        <v>0.65898417744382631</v>
-      </c>
-      <c r="J30" s="8" t="e">
-        <f t="shared" ref="J30" si="19">+J8/J5</f>
+      <c r="I30" s="7">
+        <f t="shared" ref="I30:I31" si="17">+I8/E8-1</f>
+        <v>5.6106545763672466E-2</v>
+      </c>
+      <c r="J30" s="7" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="3"/>
@@ -1794,40 +2584,28 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="8" t="e">
-        <f t="shared" ref="C31:H31" si="20">+C14/C5</f>
+        <v>45</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="8" t="e">
-        <f t="shared" si="20"/>
+      <c r="H31" s="7" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="8">
-        <f t="shared" si="20"/>
-        <v>0.2915189528224707</v>
-      </c>
-      <c r="F31" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="8">
-        <f>+I14/I5</f>
-        <v>0.17036341304819017</v>
-      </c>
-      <c r="J31" s="8" t="e">
-        <f t="shared" ref="J31" si="21">+J14/J5</f>
+      <c r="I31" s="7">
+        <f t="shared" si="17"/>
+        <v>-5.6381238069266426E-2</v>
+      </c>
+      <c r="J31" s="7" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="3"/>
@@ -1845,40 +2623,40 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="8" t="e">
-        <f t="shared" ref="C32:J32" si="22">+C19/C18</f>
+        <v>40</v>
+      </c>
+      <c r="C32" s="7" t="e">
+        <f t="shared" ref="C32:H32" si="18">+(C7-C10)/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="8" t="e">
-        <f t="shared" si="22"/>
+      <c r="D32" s="7" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="8">
-        <f t="shared" si="22"/>
-        <v>0.18099954975236379</v>
-      </c>
-      <c r="F32" s="8" t="e">
-        <f t="shared" si="22"/>
+      <c r="E32" s="7">
+        <f t="shared" si="18"/>
+        <v>0.6447616482628602</v>
+      </c>
+      <c r="F32" s="7" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="8" t="e">
-        <f t="shared" si="22"/>
+      <c r="G32" s="7" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="8" t="e">
-        <f t="shared" si="22"/>
+      <c r="H32" s="7" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="8">
-        <f t="shared" si="22"/>
-        <v>-0.19585355094838994</v>
-      </c>
-      <c r="J32" s="8" t="e">
-        <f t="shared" si="22"/>
+      <c r="I32" s="7">
+        <f>+(I7-I10)/I7</f>
+        <v>0.65137433260826572</v>
+      </c>
+      <c r="J32" s="7" t="e">
+        <f t="shared" ref="J32:J33" si="19">+(J7-J10)/J7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="3"/>
@@ -1896,15 +2674,42 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="7" t="e">
+        <f t="shared" ref="C33:H33" si="20">+(C8-C11)/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="20"/>
+        <v>0.67299518277132331</v>
+      </c>
+      <c r="F33" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="7">
+        <f>+(I8-I11)/I8</f>
+        <v>0.67963509525087207</v>
+      </c>
+      <c r="J33" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -1920,15 +2725,42 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="7" t="e">
+        <f t="shared" ref="C34:H34" si="21">+C12/C9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="7" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="21"/>
+        <v>0.6515544041450777</v>
+      </c>
+      <c r="F34" s="7" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="7" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="7" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="7">
+        <f>+I12/I9</f>
+        <v>0.65898417744382631</v>
+      </c>
+      <c r="J34" s="7" t="e">
+        <f t="shared" ref="J34" si="22">+J12/J9</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -1944,15 +2776,42 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="7" t="e">
+        <f t="shared" ref="C35:H35" si="23">+C18/C9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="23"/>
+        <v>0.2915189528224707</v>
+      </c>
+      <c r="F35" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="7">
+        <f>+I18/I9</f>
+        <v>0.17036341304819017</v>
+      </c>
+      <c r="J35" s="7" t="e">
+        <f t="shared" ref="J35" si="24">+J18/J9</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -1968,15 +2827,42 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="7" t="e">
+        <f t="shared" ref="C36:J36" si="25">+C23/C22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="25"/>
+        <v>0.18099954975236379</v>
+      </c>
+      <c r="F36" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="25"/>
+        <v>-0.19585355094838994</v>
+      </c>
+      <c r="J36" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -1992,7 +2878,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2016,7 +2902,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2040,7 +2926,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2064,7 +2950,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2088,7 +2974,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2112,7 +2998,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2136,7 +3022,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2160,7 +3046,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2184,7 +3070,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2208,7 +3094,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2232,7 +3118,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2256,7 +3142,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -7656,6 +8542,102 @@
       <c r="W272" s="3"/>
       <c r="X272" s="3"/>
     </row>
+    <row r="273" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+      <c r="I273" s="3"/>
+      <c r="J273" s="3"/>
+      <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
+      <c r="N273" s="3"/>
+      <c r="O273" s="3"/>
+      <c r="P273" s="3"/>
+      <c r="Q273" s="3"/>
+      <c r="R273" s="3"/>
+      <c r="S273" s="3"/>
+      <c r="T273" s="3"/>
+      <c r="U273" s="3"/>
+      <c r="V273" s="3"/>
+      <c r="W273" s="3"/>
+      <c r="X273" s="3"/>
+    </row>
+    <row r="274" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
+      <c r="N274" s="3"/>
+      <c r="O274" s="3"/>
+      <c r="P274" s="3"/>
+      <c r="Q274" s="3"/>
+      <c r="R274" s="3"/>
+      <c r="S274" s="3"/>
+      <c r="T274" s="3"/>
+      <c r="U274" s="3"/>
+      <c r="V274" s="3"/>
+      <c r="W274" s="3"/>
+      <c r="X274" s="3"/>
+    </row>
+    <row r="275" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
+      <c r="I275" s="3"/>
+      <c r="J275" s="3"/>
+      <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
+      <c r="M275" s="3"/>
+      <c r="N275" s="3"/>
+      <c r="O275" s="3"/>
+      <c r="P275" s="3"/>
+      <c r="Q275" s="3"/>
+      <c r="R275" s="3"/>
+      <c r="S275" s="3"/>
+      <c r="T275" s="3"/>
+      <c r="U275" s="3"/>
+      <c r="V275" s="3"/>
+      <c r="W275" s="3"/>
+      <c r="X275" s="3"/>
+    </row>
+    <row r="276" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3"/>
+      <c r="H276" s="3"/>
+      <c r="I276" s="3"/>
+      <c r="J276" s="3"/>
+      <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
+      <c r="M276" s="3"/>
+      <c r="N276" s="3"/>
+      <c r="O276" s="3"/>
+      <c r="P276" s="3"/>
+      <c r="Q276" s="3"/>
+      <c r="R276" s="3"/>
+      <c r="S276" s="3"/>
+      <c r="T276" s="3"/>
+      <c r="U276" s="3"/>
+      <c r="V276" s="3"/>
+      <c r="W276" s="3"/>
+      <c r="X276" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{90086314-2E3D-4887-AED2-543CCE2FE259}"/>
